--- a/TR/TR_1/DADES (1).xlsx
+++ b/TR/TR_1/DADES (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleri\Desktop\Flappy-bird_TR\TR\TR_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B383FCBB-D966-4893-A248-4B6177F354C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EE9A5F-BF9D-4889-A2C6-CFF3AE51B419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{19D165D5-F221-4151-8D29-45839C280955}"/>
   </bookViews>
